--- a/data/trans_camb/P25A_3_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_3_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,6 +656,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -667,6 +713,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -705,6 +766,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -795,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 0,0</t>
+          <t>-9,81; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,0</t>
+          <t>-9,99; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 0,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 0,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 3,7</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,0</t>
+          <t>-8,71; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,0</t>
+          <t>-8,16; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,04</t>
+          <t>-3,56; 5,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,0</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 1,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 0,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 2,7</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-14,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-43,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,0</t>
+          <t>-6,05; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,49</t>
+          <t>-5,61; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,0</t>
+          <t>-0,28; 11,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,74</t>
+          <t>-5,67; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,0</t>
+          <t>-5,92; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,2</t>
+          <t>-5,67; 0,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 0,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 0,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 5,41</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1391,19 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>405,14%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
@@ -1170,7 +1411,22 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>172,97%</t>
         </is>
       </c>
     </row>
@@ -1211,6 +1467,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,83</t>
+          <t>-2,83; 6,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,22</t>
+          <t>-2,71; 4,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,0</t>
+          <t>-1,42; 10,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 3,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,04</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,44</t>
+          <t>0,0; 9,58</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 3,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 4,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 6,79</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>250,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-40,56%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>99,26%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>119,17%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>337,27%</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 629,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,7</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,38</t>
+          <t>0,0; 15,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,64</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,72</t>
+          <t>1,64; 19,42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,37</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,72</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 12,04</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>249,59%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>167,98%</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>344,96%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>420,12%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,27</t>
+          <t>-2,27; 0,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,01</t>
+          <t>-2,1; 0,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,06</t>
+          <t>-0,39; 3,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,21</t>
+          <t>-0,17; 2,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,46</t>
+          <t>-0,21; 2,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>0,23; 4,06</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 0,97</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 0,79</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,87</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-51,52%</t>
+          <t>-60,17%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>-53,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>129,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>305,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>192,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>664,3%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-10,11%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>227,62%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 461,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 576,13</t>
+          <t>-45,62; 1129,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 711,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 140,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 222,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-80,07; 512,57</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-84,87; 423,77</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1154,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
